--- a/mordomo/nome-do-arquivo.xlsx
+++ b/mordomo/nome-do-arquivo.xlsx
@@ -136,7 +136,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="104775" cy="933450"/>
+    <ext cx="838200" cy="1200150"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -161,7 +161,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="104775" cy="933450"/>
+    <ext cx="838200" cy="1200150"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -186,7 +186,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="104775" cy="933450"/>
+    <ext cx="838200" cy="1200150"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -211,7 +211,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="104775" cy="933450"/>
+    <ext cx="838200" cy="1200150"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -236,7 +236,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="104775" cy="933450"/>
+    <ext cx="838200" cy="1200150"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>

--- a/mordomo/nome-do-arquivo.xlsx
+++ b/mordomo/nome-do-arquivo.xlsx
@@ -599,7 +599,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="97.5" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -627,7 +627,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="97.5" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -655,7 +655,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="97.5" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -683,7 +683,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="97.5" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -711,7 +711,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="97.5" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>

--- a/mordomo/nome-do-arquivo.xlsx
+++ b/mordomo/nome-do-arquivo.xlsx
@@ -244,6 +244,381 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="838200" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -546,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +1114,426 @@
         </is>
       </c>
     </row>
+    <row r="7" ht="97.5" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kit Caneleira Tornozeleira de Peso Perna 1kg 2kg 3kg Par Para Treino Academia - Preto</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>138.86</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/kit-caneleira-tornozeleira-de-peso-perna-1kg-2kg-3kg-par-para-treino-academia-EHJ-1549-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="97.5" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tornozeleira de Compressão Sense Alasca para recuperação de lesões e dores no tornozelo. - Preto</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/tornozeleira-de-compressao-sense-alasca-para-recuperacao-de-lesoes-e-dores-no-tornozelo-PMK-0005-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="97.5" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tornozeleira Realtex Elástica Infantil - Preto</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/tornozeleira-realtex-elastica-infantil-437-1170-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="97.5" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Par de Caneleiras Peso Perna 6Kg Tornozeleira Profissional Para Musculação Academia - Preto</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>76.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/par-de-caneleiras-peso-perna-6kg-tornozeleira-profissional-para-musculacao-academia-EHJ-1485-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="97.5" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Par de Caneleiras 4Kg Tornozeleira Peso Academia Treino Hard - Preto</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/par-de-caneleiras-4kg-tornozeleira-peso-academia-treino-hard-LOT-0204-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="97.5" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Par De Tornozeleira Para Elásticos Extensores Proaction G288 - Preto</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/par-de-tornozeleira-para-elasticos-extensores-proaction-g288-A76-0328-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="97.5" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tornozeleira Sport Suporte Proteção Elástico para Atividade Física - Azul</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/tornozeleira-sport-suporte-protecao-elastico-para-atividade-fisica-JXM-0008-008</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="97.5" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Caneleira / Tornozeleira 1 Kg Treino Fitness - Preto</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/caneleira--tornozeleira-1-kg-treino-fitness-2ZC-0099-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="97.5" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tornozeleira Realtex Elástica Cano Curto - Branco</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/tornozeleira-realtex-elastica-cano-curto-437-1176-014</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="97.5" customHeight="1">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Caneleira Futebol Pentagol Infantil/Juvenil sem Tornozeleira - Laranja</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/caneleira-futebol-pentagol-infantiljuvenil-sem-tornozeleira-KAS-0330-042</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="97.5" customHeight="1">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Par de Caneleiras Peso Perna 3Kg Tornozeleira Profissional Para Musculação Academia - Preto</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/par-de-caneleiras-peso-perna-3kg-tornozeleira-profissional-para-musculacao-academia-EHJ-1256-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="97.5" customHeight="1">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tornozeleira de Compressão Ortopédica Ajustável MBFIT - Preto</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50.31</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/tornozeleira-de-compressao-ortopedica-ajustavel-mbfit-0L7-0041-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="97.5" customHeight="1">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tornozeleira Elástica Bamboo Par Hidrolight Preta EL11 - Preto</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>33.48</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/tornozeleira-elastica-bamboo-par-hidrolight-preta-el11-H47-1368-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="97.5" customHeight="1">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tornozeleira Esportiva Estabilizador Prevenção Lesão Forrado - Preto</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/tornozeleira-esportiva-estabilizador-prevencao-lesao-forrado-9VD-0006-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="97.5" customHeight="1">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SUPORTE PARA TORNOZELO ORTOPÉDICO AJUSTÁVEL COM ELÁSTICO DE QUATRO VIAS E CINTA DE COMPRESSÃO - Preto</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.netshoes.com.br/suporte-para-tornozelo-ortopedico-ajustavel-com-elastico-de-quatro-vias-e-cinta-de-compressao-8ZL-0140-006</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
